--- a/modules/fintera_faturamento_api/configuracao.xlsx
+++ b/modules/fintera_faturamento_api/configuracao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d613e658714d6bd/Documentos/projeto/teste/main-service/app/faturamento/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Moretto\Documents\mt-projects\app-mt-autoflow\modules\fintera_faturamento_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{6E17D170-A913-4A5C-906B-D399FA3429C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34981724-ADB0-4DAE-926B-F9DF26C28C51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9562068-4B6D-4494-B587-B4724FF39FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DF06249F-6FDD-414D-A318-1D5E3E2A69DA}"/>
+    <workbookView xWindow="-34500" yWindow="-4425" windowWidth="20730" windowHeight="14580" xr2:uid="{DF06249F-6FDD-414D-A318-1D5E3E2A69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="299">
   <si>
     <t>CNPJ</t>
   </si>
@@ -709,6 +709,228 @@
   </si>
   <si>
     <t>54001871000159</t>
+  </si>
+  <si>
+    <t>25138940000334</t>
+  </si>
+  <si>
+    <t>15260124000264</t>
+  </si>
+  <si>
+    <t>15260124000345</t>
+  </si>
+  <si>
+    <t>MISSMOTT - CENTER 3 - 15260124000264</t>
+  </si>
+  <si>
+    <t>MISSMOTT - CIDADE SP - 15260124000345</t>
+  </si>
+  <si>
+    <t>MISSMOTT - MISSMOTT MATRIZ - 15260124000183</t>
+  </si>
+  <si>
+    <t>MISSMOTT - TOP CENTER - 15260124000426</t>
+  </si>
+  <si>
+    <t>15260124000183</t>
+  </si>
+  <si>
+    <t>15260124000426</t>
+  </si>
+  <si>
+    <t>04487818000131</t>
+  </si>
+  <si>
+    <t>Unimil - REBEL BRASILIA - 03262645000190</t>
+  </si>
+  <si>
+    <t>REPAGGI MODAS E ACESSORIOS - REPAGGI MODAS E ACESSORIOS</t>
+  </si>
+  <si>
+    <t>43137382000102</t>
+  </si>
+  <si>
+    <t>GRUPO EDITORIAL SUMMUS - LIVROS DA SUMMUS LTDA</t>
+  </si>
+  <si>
+    <t>47901145000127</t>
+  </si>
+  <si>
+    <t>26760956000185</t>
+  </si>
+  <si>
+    <t>ULTRA SPORTS COMÉRCIO DIGITAL LTDA - ULTRA SPORTS</t>
+  </si>
+  <si>
+    <t>SKELT - SKELT MUELLER - 17616018000549</t>
+  </si>
+  <si>
+    <t>SKELT - Skelt Feira - SP - 17616018000620</t>
+  </si>
+  <si>
+    <t>SuperNova - SUPERNOVA - 21149353000128</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY  SP (FEIRA) - 32306307000292</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY SHOPPING MORUMBI - 32306307000535</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY BOULEVARD BH - 32306307000616</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY SHOPPING GRU - 32306307000705</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY SHOPPING DOM PEDRO - 32306307000888</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY SHOPPING CIDADE SP - 32306307001000</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY CANOAS RS - 32306307001264</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY SHOPPING PALLADIUM PG - 32306307001345</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY BARRA SUL - 32306307001426</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY SHOPPING IGUATEMI CAMPINAS - 32306307001507</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY BOULEVARD BAURU - 32306307001698</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY SHOPPING MOOCA - 32306307001779</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY SHOPPING RIBEIRAO PRETO - 32306307001850</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY SHOPPING TAMBORE  SP - 32306307002155</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY SHOPPING SAO JOSE DOS PINHAIS - 32306307002236</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY VILA LOBOS - 32306307002317</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY SHOPPING HIGIENOPOLIS - 32306307002406</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY ESTACAO CURITIBA - 32306307002660</t>
+  </si>
+  <si>
+    <t>Creamy - CREAMY CIDADE BH - 32306307002902</t>
+  </si>
+  <si>
+    <t>Biscoite - BISCOITE MORUMBI QSQ - 39267229001366</t>
+  </si>
+  <si>
+    <t>Biscoite - BISCOITE VILA OLIMPIA - 39267229001790</t>
+  </si>
+  <si>
+    <t>Happy Machine - HML BOULEVARD STORE LTDA - Boulevard - 48710374000127</t>
+  </si>
+  <si>
+    <t>WFB - WFB RO - 53325321000203</t>
+  </si>
+  <si>
+    <t>Biscoite - BISCOITE SHOP BALNEARIO CAMBORIU - 55457158000187</t>
+  </si>
+  <si>
+    <t>17616018000549</t>
+  </si>
+  <si>
+    <t>17616018000620</t>
+  </si>
+  <si>
+    <t>21149353000128</t>
+  </si>
+  <si>
+    <t>32306307000292</t>
+  </si>
+  <si>
+    <t>32306307000535</t>
+  </si>
+  <si>
+    <t>32306307000616</t>
+  </si>
+  <si>
+    <t>32306307000705</t>
+  </si>
+  <si>
+    <t>32306307000888</t>
+  </si>
+  <si>
+    <t>32306307001000</t>
+  </si>
+  <si>
+    <t>32306307001264</t>
+  </si>
+  <si>
+    <t>32306307001345</t>
+  </si>
+  <si>
+    <t>32306307001426</t>
+  </si>
+  <si>
+    <t>32306307001507</t>
+  </si>
+  <si>
+    <t>32306307001698</t>
+  </si>
+  <si>
+    <t>32306307001779</t>
+  </si>
+  <si>
+    <t>32306307001850</t>
+  </si>
+  <si>
+    <t>32306307002155</t>
+  </si>
+  <si>
+    <t>32306307002236</t>
+  </si>
+  <si>
+    <t>32306307002317</t>
+  </si>
+  <si>
+    <t>32306307002406</t>
+  </si>
+  <si>
+    <t>32306307002660</t>
+  </si>
+  <si>
+    <t>32306307002902</t>
+  </si>
+  <si>
+    <t>39267229001366</t>
+  </si>
+  <si>
+    <t>39267229001790</t>
+  </si>
+  <si>
+    <t>48710374000127</t>
+  </si>
+  <si>
+    <t>53325321000203</t>
+  </si>
+  <si>
+    <t>55457158000187</t>
+  </si>
+  <si>
+    <t>47123343000107</t>
+  </si>
+  <si>
+    <t>30805547000125</t>
+  </si>
+  <si>
+    <t>53325321000122</t>
   </si>
 </sst>
 </file>
@@ -732,12 +954,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -752,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -761,6 +989,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,11 +1306,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815884E6-43B8-4327-BCA7-551EAEF2FC1C}">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,38 +1386,39 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8">
         <v>3000</v>
       </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="6">
         <v>5000</v>
       </c>
-      <c r="I3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="6">
         <v>0.15</v>
       </c>
-      <c r="L3" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3">
+      <c r="L3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="6">
         <v>0.15</v>
       </c>
     </row>
@@ -1715,37 +1947,39 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4">
+      <c r="D19" s="7"/>
+      <c r="E19" s="8">
         <v>1000</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="4">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8">
         <v>1000</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -1963,6 +2197,9 @@
       <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1975,6 +2212,9 @@
       <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="D34" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,6 +2243,9 @@
       </c>
       <c r="C36" t="s">
         <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="E36" s="4">
         <v>500</v>
@@ -3119,6 +3362,9 @@
       <c r="C94" t="s">
         <v>88</v>
       </c>
+      <c r="D94" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="E94" s="4">
         <v>1500</v>
       </c>
@@ -3184,6 +3430,9 @@
       <c r="C98" s="5" t="s">
         <v>203</v>
       </c>
+      <c r="D98" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3196,6 +3445,9 @@
       <c r="C99" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="D99" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3208,6 +3460,9 @@
       <c r="C100" s="5" t="s">
         <v>205</v>
       </c>
+      <c r="D100" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,10 +3470,13 @@
         <v>198</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" t="s">
+        <v>235</v>
+      </c>
+      <c r="D101" t="s">
         <v>212</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="E101" s="4">
         <v>1000</v>
@@ -3232,22 +3490,30 @@
         <v>198</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E102" s="4"/>
+        <v>201</v>
+      </c>
+      <c r="D102" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F102">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>198</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E103" s="4"/>
     </row>
@@ -3256,10 +3522,10 @@
         <v>198</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E104" s="4"/>
     </row>
@@ -3268,10 +3534,10 @@
         <v>198</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E105" s="4"/>
     </row>
@@ -3280,10 +3546,10 @@
         <v>198</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E106" s="4"/>
     </row>
@@ -3291,28 +3557,456 @@
       <c r="A107" t="s">
         <v>198</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E107" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" t="s">
+        <v>229</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>198</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" t="s">
+        <v>230</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E110" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C112" t="s">
         <v>223</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E112" s="4">
         <v>4500</v>
       </c>
-      <c r="F107">
+      <c r="F112">
         <v>0.35</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B108"/>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E110" s="4"/>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" t="s">
+        <v>236</v>
+      </c>
+      <c r="E113" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" t="s">
+        <v>238</v>
+      </c>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" t="s">
+        <v>241</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F115">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>198</v>
+      </c>
+      <c r="B117" t="s">
+        <v>270</v>
+      </c>
+      <c r="C117" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118" t="s">
+        <v>244</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>198</v>
+      </c>
+      <c r="B119" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>198</v>
+      </c>
+      <c r="B120" t="s">
+        <v>273</v>
+      </c>
+      <c r="C120" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>198</v>
+      </c>
+      <c r="B121" t="s">
+        <v>274</v>
+      </c>
+      <c r="C121" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>198</v>
+      </c>
+      <c r="B122" t="s">
+        <v>275</v>
+      </c>
+      <c r="C122" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>198</v>
+      </c>
+      <c r="B124" t="s">
+        <v>277</v>
+      </c>
+      <c r="C124" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>198</v>
+      </c>
+      <c r="B125" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>198</v>
+      </c>
+      <c r="B126" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" t="s">
+        <v>280</v>
+      </c>
+      <c r="C127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128" t="s">
+        <v>281</v>
+      </c>
+      <c r="C128" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>198</v>
+      </c>
+      <c r="B129" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>198</v>
+      </c>
+      <c r="B130" t="s">
+        <v>283</v>
+      </c>
+      <c r="C130" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>198</v>
+      </c>
+      <c r="B131" t="s">
+        <v>284</v>
+      </c>
+      <c r="C131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>198</v>
+      </c>
+      <c r="B132" t="s">
+        <v>285</v>
+      </c>
+      <c r="C132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>198</v>
+      </c>
+      <c r="B133" t="s">
+        <v>286</v>
+      </c>
+      <c r="C133" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" t="s">
+        <v>287</v>
+      </c>
+      <c r="C134" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>198</v>
+      </c>
+      <c r="B135" t="s">
+        <v>288</v>
+      </c>
+      <c r="C135" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>198</v>
+      </c>
+      <c r="B136" t="s">
+        <v>289</v>
+      </c>
+      <c r="C136" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>198</v>
+      </c>
+      <c r="B137" t="s">
+        <v>290</v>
+      </c>
+      <c r="C137" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" t="s">
+        <v>264</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>198</v>
+      </c>
+      <c r="B139" t="s">
+        <v>292</v>
+      </c>
+      <c r="C139" t="s">
+        <v>265</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>198</v>
+      </c>
+      <c r="B140" t="s">
+        <v>293</v>
+      </c>
+      <c r="C140" t="s">
+        <v>266</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>198</v>
+      </c>
+      <c r="B141" t="s">
+        <v>294</v>
+      </c>
+      <c r="C141" t="s">
+        <v>267</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>198</v>
+      </c>
+      <c r="B142" t="s">
+        <v>295</v>
+      </c>
+      <c r="C142" t="s">
+        <v>268</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
